--- a/target/test-classes/testdata/TestDataBatch11Hrms.xlsx
+++ b/target/test-classes/testdata/TestDataBatch11Hrms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ErishTOSUN\IdeaProjects\HrmsBatch11\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31338B38-5203-4694-89C2-2E33146C35CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB47662D-911A-4FDA-A7F3-D5DE867B6ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="2370" windowWidth="21600" windowHeight="11385" xr2:uid="{36326F1A-2601-479B-8731-5040696A28CC}"/>
   </bookViews>
@@ -45,18 +45,12 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Photograph</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Alosha</t>
   </si>
   <si>
-    <t>MS</t>
-  </si>
-  <si>
     <t>fam</t>
   </si>
   <si>
@@ -70,6 +64,12 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Photograpgh</t>
+  </si>
+  <si>
+    <t>MS4</t>
   </si>
 </sst>
 </file>
@@ -424,7 +424,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,33 +448,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
